--- a/po_analysis_by_asin/B0CV2JQNX1_po_data.xlsx
+++ b/po_analysis_by_asin/B0CV2JQNX1_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45327</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>75</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>9</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>9</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>7</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45376</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>26</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45390</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>12</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>16</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>52</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>26</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>66</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>10</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>8</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>116</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>10</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>36</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>14</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>6</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>16</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>2</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>8</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>18</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45635</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>2</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>93</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>27</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>48</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>112</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>76</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>124</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>14</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>50</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>24</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>8</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45627</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>20</v>

--- a/po_analysis_by_asin/B0CV2JQNX1_po_data.xlsx
+++ b/po_analysis_by_asin/B0CV2JQNX1_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -717,7 +718,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -807,6 +808,579 @@
       </c>
       <c r="B12" t="n">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-8.702351908703118</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.54625103072828</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-7.703764037613189</v>
+      </c>
+      <c r="D3" t="n">
+        <v>55.45000498496821</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-9.312305944756703</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.36319995780222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-8.687269704633515</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.99103575672824</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-6.979174899783488</v>
+      </c>
+      <c r="D6" t="n">
+        <v>52.78371162970051</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-9.640833120776811</v>
+      </c>
+      <c r="D7" t="n">
+        <v>55.42867717881278</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-10.40425551204973</v>
+      </c>
+      <c r="D8" t="n">
+        <v>53.01507944241717</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>22</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-9.730372022917676</v>
+      </c>
+      <c r="D9" t="n">
+        <v>52.15849609490646</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-11.76990673652718</v>
+      </c>
+      <c r="D10" t="n">
+        <v>54.53651567408031</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-9.957232805792081</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51.42719444583287</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>21</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-9.433269939160844</v>
+      </c>
+      <c r="D12" t="n">
+        <v>51.78292819572462</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>21</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-9.988403178793812</v>
+      </c>
+      <c r="D13" t="n">
+        <v>54.54058804869855</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>21</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-9.064358876353568</v>
+      </c>
+      <c r="D14" t="n">
+        <v>53.45438779218522</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-10.41134416905788</v>
+      </c>
+      <c r="D15" t="n">
+        <v>52.56871093994184</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-11.69575392034239</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50.59244309179051</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-9.359812581542608</v>
+      </c>
+      <c r="D17" t="n">
+        <v>53.0664799099566</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-10.74124634181103</v>
+      </c>
+      <c r="D18" t="n">
+        <v>53.66298033337151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-13.05638603659709</v>
+      </c>
+      <c r="D19" t="n">
+        <v>52.10098540021083</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-11.94949477514512</v>
+      </c>
+      <c r="D20" t="n">
+        <v>52.51871991587377</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-11.31702757983164</v>
+      </c>
+      <c r="D21" t="n">
+        <v>49.69940284469172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>18</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-14.35144734936789</v>
+      </c>
+      <c r="D22" t="n">
+        <v>48.97361033084076</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>18</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-15.61534074494302</v>
+      </c>
+      <c r="D23" t="n">
+        <v>50.7688435967352</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>18</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-14.62261013370857</v>
+      </c>
+      <c r="D24" t="n">
+        <v>49.62302589034244</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>17</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-15.05456846928768</v>
+      </c>
+      <c r="D25" t="n">
+        <v>48.48861445550723</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>17</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-14.78341716282825</v>
+      </c>
+      <c r="D26" t="n">
+        <v>45.28271198308686</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>17</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-14.59024503388187</v>
+      </c>
+      <c r="D27" t="n">
+        <v>49.11293695077377</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>17</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-16.28283779367754</v>
+      </c>
+      <c r="D28" t="n">
+        <v>49.78195458869033</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-14.41352262753584</v>
+      </c>
+      <c r="D29" t="n">
+        <v>48.94382763788506</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>15</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-18.11418694952163</v>
+      </c>
+      <c r="D30" t="n">
+        <v>48.53809014554446</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>15</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-17.61796307045955</v>
+      </c>
+      <c r="D31" t="n">
+        <v>48.39190203070866</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>15</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-17.28551684998975</v>
+      </c>
+      <c r="D32" t="n">
+        <v>48.13925182800165</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>15</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-17.87331252803848</v>
+      </c>
+      <c r="D33" t="n">
+        <v>45.22414670364693</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>14</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-16.77102439295157</v>
+      </c>
+      <c r="D34" t="n">
+        <v>46.38610853051541</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>14</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-16.13980796440663</v>
+      </c>
+      <c r="D35" t="n">
+        <v>45.06513883372509</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>14</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-17.95689344129537</v>
+      </c>
+      <c r="D36" t="n">
+        <v>45.87620067042811</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>14</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-18.69516030085298</v>
+      </c>
+      <c r="D37" t="n">
+        <v>45.28135640654769</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>14</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-16.56251250410292</v>
+      </c>
+      <c r="D38" t="n">
+        <v>44.90298087705142</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>14</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-16.29530395307235</v>
+      </c>
+      <c r="D39" t="n">
+        <v>45.70255466294547</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CV2JQNX1_po_data.xlsx
+++ b/po_analysis_by_asin/B0CV2JQNX1_po_data.xlsx
@@ -821,7 +821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -840,16 +840,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -858,12 +848,6 @@
       <c r="B2" t="n">
         <v>24</v>
       </c>
-      <c r="C2" t="n">
-        <v>-8.702351908703118</v>
-      </c>
-      <c r="D2" t="n">
-        <v>53.54625103072828</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -872,12 +856,6 @@
       <c r="B3" t="n">
         <v>23</v>
       </c>
-      <c r="C3" t="n">
-        <v>-7.703764037613189</v>
-      </c>
-      <c r="D3" t="n">
-        <v>55.45000498496821</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -886,12 +864,6 @@
       <c r="B4" t="n">
         <v>23</v>
       </c>
-      <c r="C4" t="n">
-        <v>-9.312305944756703</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.36319995780222</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -900,12 +872,6 @@
       <c r="B5" t="n">
         <v>23</v>
       </c>
-      <c r="C5" t="n">
-        <v>-8.687269704633515</v>
-      </c>
-      <c r="D5" t="n">
-        <v>56.99103575672824</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -914,12 +880,6 @@
       <c r="B6" t="n">
         <v>23</v>
       </c>
-      <c r="C6" t="n">
-        <v>-6.979174899783488</v>
-      </c>
-      <c r="D6" t="n">
-        <v>52.78371162970051</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -928,12 +888,6 @@
       <c r="B7" t="n">
         <v>22</v>
       </c>
-      <c r="C7" t="n">
-        <v>-9.640833120776811</v>
-      </c>
-      <c r="D7" t="n">
-        <v>55.42867717881278</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -942,12 +896,6 @@
       <c r="B8" t="n">
         <v>22</v>
       </c>
-      <c r="C8" t="n">
-        <v>-10.40425551204973</v>
-      </c>
-      <c r="D8" t="n">
-        <v>53.01507944241717</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -956,12 +904,6 @@
       <c r="B9" t="n">
         <v>22</v>
       </c>
-      <c r="C9" t="n">
-        <v>-9.730372022917676</v>
-      </c>
-      <c r="D9" t="n">
-        <v>52.15849609490646</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -970,12 +912,6 @@
       <c r="B10" t="n">
         <v>22</v>
       </c>
-      <c r="C10" t="n">
-        <v>-11.76990673652718</v>
-      </c>
-      <c r="D10" t="n">
-        <v>54.53651567408031</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -984,12 +920,6 @@
       <c r="B11" t="n">
         <v>22</v>
       </c>
-      <c r="C11" t="n">
-        <v>-9.957232805792081</v>
-      </c>
-      <c r="D11" t="n">
-        <v>51.42719444583287</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -998,12 +928,6 @@
       <c r="B12" t="n">
         <v>21</v>
       </c>
-      <c r="C12" t="n">
-        <v>-9.433269939160844</v>
-      </c>
-      <c r="D12" t="n">
-        <v>51.78292819572462</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1012,12 +936,6 @@
       <c r="B13" t="n">
         <v>21</v>
       </c>
-      <c r="C13" t="n">
-        <v>-9.988403178793812</v>
-      </c>
-      <c r="D13" t="n">
-        <v>54.54058804869855</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1026,12 +944,6 @@
       <c r="B14" t="n">
         <v>21</v>
       </c>
-      <c r="C14" t="n">
-        <v>-9.064358876353568</v>
-      </c>
-      <c r="D14" t="n">
-        <v>53.45438779218522</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1040,12 +952,6 @@
       <c r="B15" t="n">
         <v>21</v>
       </c>
-      <c r="C15" t="n">
-        <v>-10.41134416905788</v>
-      </c>
-      <c r="D15" t="n">
-        <v>52.56871093994184</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1054,12 +960,6 @@
       <c r="B16" t="n">
         <v>21</v>
       </c>
-      <c r="C16" t="n">
-        <v>-11.69575392034239</v>
-      </c>
-      <c r="D16" t="n">
-        <v>50.59244309179051</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1068,12 +968,6 @@
       <c r="B17" t="n">
         <v>20</v>
       </c>
-      <c r="C17" t="n">
-        <v>-9.359812581542608</v>
-      </c>
-      <c r="D17" t="n">
-        <v>53.0664799099566</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1082,12 +976,6 @@
       <c r="B18" t="n">
         <v>20</v>
       </c>
-      <c r="C18" t="n">
-        <v>-10.74124634181103</v>
-      </c>
-      <c r="D18" t="n">
-        <v>53.66298033337151</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1096,12 +984,6 @@
       <c r="B19" t="n">
         <v>20</v>
       </c>
-      <c r="C19" t="n">
-        <v>-13.05638603659709</v>
-      </c>
-      <c r="D19" t="n">
-        <v>52.10098540021083</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1110,12 +992,6 @@
       <c r="B20" t="n">
         <v>20</v>
       </c>
-      <c r="C20" t="n">
-        <v>-11.94949477514512</v>
-      </c>
-      <c r="D20" t="n">
-        <v>52.51871991587377</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1124,12 +1000,6 @@
       <c r="B21" t="n">
         <v>19</v>
       </c>
-      <c r="C21" t="n">
-        <v>-11.31702757983164</v>
-      </c>
-      <c r="D21" t="n">
-        <v>49.69940284469172</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1138,12 +1008,6 @@
       <c r="B22" t="n">
         <v>18</v>
       </c>
-      <c r="C22" t="n">
-        <v>-14.35144734936789</v>
-      </c>
-      <c r="D22" t="n">
-        <v>48.97361033084076</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1152,12 +1016,6 @@
       <c r="B23" t="n">
         <v>18</v>
       </c>
-      <c r="C23" t="n">
-        <v>-15.61534074494302</v>
-      </c>
-      <c r="D23" t="n">
-        <v>50.7688435967352</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1166,12 +1024,6 @@
       <c r="B24" t="n">
         <v>18</v>
       </c>
-      <c r="C24" t="n">
-        <v>-14.62261013370857</v>
-      </c>
-      <c r="D24" t="n">
-        <v>49.62302589034244</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1180,12 +1032,6 @@
       <c r="B25" t="n">
         <v>17</v>
       </c>
-      <c r="C25" t="n">
-        <v>-15.05456846928768</v>
-      </c>
-      <c r="D25" t="n">
-        <v>48.48861445550723</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1194,12 +1040,6 @@
       <c r="B26" t="n">
         <v>17</v>
       </c>
-      <c r="C26" t="n">
-        <v>-14.78341716282825</v>
-      </c>
-      <c r="D26" t="n">
-        <v>45.28271198308686</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1208,12 +1048,6 @@
       <c r="B27" t="n">
         <v>17</v>
       </c>
-      <c r="C27" t="n">
-        <v>-14.59024503388187</v>
-      </c>
-      <c r="D27" t="n">
-        <v>49.11293695077377</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1222,12 +1056,6 @@
       <c r="B28" t="n">
         <v>17</v>
       </c>
-      <c r="C28" t="n">
-        <v>-16.28283779367754</v>
-      </c>
-      <c r="D28" t="n">
-        <v>49.78195458869033</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1236,12 +1064,6 @@
       <c r="B29" t="n">
         <v>16</v>
       </c>
-      <c r="C29" t="n">
-        <v>-14.41352262753584</v>
-      </c>
-      <c r="D29" t="n">
-        <v>48.94382763788506</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1250,12 +1072,6 @@
       <c r="B30" t="n">
         <v>15</v>
       </c>
-      <c r="C30" t="n">
-        <v>-18.11418694952163</v>
-      </c>
-      <c r="D30" t="n">
-        <v>48.53809014554446</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1264,12 +1080,6 @@
       <c r="B31" t="n">
         <v>15</v>
       </c>
-      <c r="C31" t="n">
-        <v>-17.61796307045955</v>
-      </c>
-      <c r="D31" t="n">
-        <v>48.39190203070866</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1278,12 +1088,6 @@
       <c r="B32" t="n">
         <v>15</v>
       </c>
-      <c r="C32" t="n">
-        <v>-17.28551684998975</v>
-      </c>
-      <c r="D32" t="n">
-        <v>48.13925182800165</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1292,12 +1096,6 @@
       <c r="B33" t="n">
         <v>15</v>
       </c>
-      <c r="C33" t="n">
-        <v>-17.87331252803848</v>
-      </c>
-      <c r="D33" t="n">
-        <v>45.22414670364693</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1306,12 +1104,6 @@
       <c r="B34" t="n">
         <v>14</v>
       </c>
-      <c r="C34" t="n">
-        <v>-16.77102439295157</v>
-      </c>
-      <c r="D34" t="n">
-        <v>46.38610853051541</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1320,12 +1112,6 @@
       <c r="B35" t="n">
         <v>14</v>
       </c>
-      <c r="C35" t="n">
-        <v>-16.13980796440663</v>
-      </c>
-      <c r="D35" t="n">
-        <v>45.06513883372509</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1334,12 +1120,6 @@
       <c r="B36" t="n">
         <v>14</v>
       </c>
-      <c r="C36" t="n">
-        <v>-17.95689344129537</v>
-      </c>
-      <c r="D36" t="n">
-        <v>45.87620067042811</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1348,12 +1128,6 @@
       <c r="B37" t="n">
         <v>14</v>
       </c>
-      <c r="C37" t="n">
-        <v>-18.69516030085298</v>
-      </c>
-      <c r="D37" t="n">
-        <v>45.28135640654769</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1362,12 +1136,6 @@
       <c r="B38" t="n">
         <v>14</v>
       </c>
-      <c r="C38" t="n">
-        <v>-16.56251250410292</v>
-      </c>
-      <c r="D38" t="n">
-        <v>44.90298087705142</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1375,12 +1143,6 @@
       </c>
       <c r="B39" t="n">
         <v>14</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-16.29530395307235</v>
-      </c>
-      <c r="D39" t="n">
-        <v>45.70255466294547</v>
       </c>
     </row>
   </sheetData>
